--- a/Grid_Data Version 2.xlsx
+++ b/Grid_Data Version 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashkan\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeus\Documents\GitHub\StepCounter1\StepCounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -848,11 +848,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255004832"/>
-        <c:axId val="255006008"/>
+        <c:axId val="125940016"/>
+        <c:axId val="125941136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255004832"/>
+        <c:axId val="125940016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255006008"/>
+        <c:crossAx val="125941136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255006008"/>
+        <c:axId val="125941136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255004832"/>
+        <c:crossAx val="125940016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,11 +1217,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255006792"/>
-        <c:axId val="255007184"/>
+        <c:axId val="62045232"/>
+        <c:axId val="183906128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255006792"/>
+        <c:axId val="62045232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255007184"/>
+        <c:crossAx val="183906128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255007184"/>
+        <c:axId val="183906128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255006792"/>
+        <c:crossAx val="62045232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,11 +1629,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255007968"/>
-        <c:axId val="255008360"/>
+        <c:axId val="183908928"/>
+        <c:axId val="183909488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255007968"/>
+        <c:axId val="183908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255008360"/>
+        <c:crossAx val="183909488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255008360"/>
+        <c:axId val="183909488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255007968"/>
+        <c:crossAx val="183908928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2097,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255468792"/>
-        <c:axId val="255469184"/>
+        <c:axId val="183912288"/>
+        <c:axId val="183912848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255468792"/>
+        <c:axId val="183912288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255469184"/>
+        <c:crossAx val="183912848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255469184"/>
+        <c:axId val="183912848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255468792"/>
+        <c:crossAx val="183912288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4976,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
